--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -696,7 +696,11 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Office / Car maintenance</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -743,7 +747,11 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,10 +1136,15 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1208,15 +1213,10 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1285,10 +1285,15 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1357,7 +1362,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1429,14 +1434,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Rx - 1st Rx</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1500,10 +1501,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Rx - 1st Rx</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1551,16 +1556,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van,
-Train w/ Bri</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1621,10 +1620,16 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van,
+Train w/ Bri</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1688,7 +1693,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1756,15 +1761,10 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>9:00 AM START</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3094,7 +3094,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>KELLEY #81, HUNTLEY</t>
+          <t>CORK AND BOTTLE LIQUORS, JANESVILLE</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10111 IL-47</t>
+          <t>1418 W. MEMORIAL DR</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
+          <t>https://maps.app.goo.gl/X4LfoEZLXvGDiMRi6</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3245,11 +3245,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3275,13 +3271,21 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL office</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3310,9 +3314,21 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
@@ -3347,17 +3363,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3392,16 +3408,8 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3435,16 +3443,8 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -3480,20 +3480,15 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t> </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
@@ -3522,14 +3517,10 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3573,14 +3564,10 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>KELLEY #81, HUNTLEY</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3620,21 +3607,13 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>10111 IL-47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -3683,21 +3662,13 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
@@ -3706,7 +3677,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3743,7 +3714,11 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
@@ -3753,7 +3728,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3790,7 +3765,11 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:30 am at IL office</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -3800,7 +3779,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3859,9 +3838,21 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
@@ -3889,6 +3880,260 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3408,9 +3408,21 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
@@ -3483,11 +3495,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3517,10 +3525,14 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3567,7 +3579,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>KELLEY #81, HUNTLEY</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3610,7 +3622,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10111 IL-47</t>
+          <t>KELLEY #81, HUNTLEY</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3665,7 +3677,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
+          <t>10111 IL-47</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3716,7 +3728,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3767,7 +3779,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3804,7 +3816,11 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:30 am at IL office</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -3838,21 +3854,9 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
@@ -3887,15 +3891,19 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3922,12 +3930,12 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3957,20 +3965,15 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3997,15 +4000,20 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4032,12 +4040,12 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4067,12 +4075,12 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -4102,19 +4110,15 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4134,6 +4138,45 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -3794,7 +3794,11 @@
           <t>Nate</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Until 10:30</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3408,21 +3408,9 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
@@ -3495,7 +3483,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3525,14 +3517,10 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3579,7 +3567,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #81, HUNTLEY</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3622,7 +3610,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>KELLEY #81, HUNTLEY</t>
+          <t>10111 IL-47</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3677,7 +3665,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10111 IL-47</t>
+          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3728,7 +3716,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3779,7 +3767,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>*IL Meet is 5:30 am at IL office</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3820,11 +3808,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:30 am at IL office</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -3858,9 +3842,21 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
@@ -3895,19 +3891,15 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3934,12 +3926,12 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3969,15 +3961,20 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4004,20 +4001,15 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4044,12 +4036,12 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4079,12 +4071,12 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -4114,15 +4106,19 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4142,45 +4138,6 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -1142,7 +1142,7 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1173,7 +1173,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -1231,7 +1236,7 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1290,7 +1295,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Silver Van</t>
         </is>
       </c>
@@ -1319,7 +1324,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Silver Van</t>
         </is>
       </c>
@@ -1379,7 +1384,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Silver Van</t>
         </is>
       </c>
@@ -1626,7 +1631,7 @@
       <c r="K24" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
+Red Camry,
 Train w/ Bri</t>
         </is>
       </c>
@@ -1723,7 +1728,7 @@
       <c r="S25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1764,7 +1769,12 @@
           <t>Michael N</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1823,7 +1833,7 @@
       <c r="K27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van,
+Camry 3,
 Supv Rx</t>
         </is>
       </c>
@@ -1899,8 +1909,8 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -1917,7 +1927,7 @@
       <c r="S28" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -1969,7 +1979,7 @@
       <c r="O29" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van,
+Camry 3,
 Supv Rx</t>
         </is>
       </c>
@@ -1987,7 +1997,7 @@
       <c r="S29" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -2427,7 +2427,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>4:30 am meet for Sarah, Lori &amp; Savannah at Hwy N PnR</t>
+          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t xml:space="preserve">w/ Sarah </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2797,12 +2797,13 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2860,13 +2861,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3180,21 +3180,9 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3263,7 +3251,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3304,7 +3296,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3351,7 +3343,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #009, RACINE</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3398,7 +3390,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #009, RACINE</t>
+          <t>4011 DURAND AVE</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3433,7 +3425,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>4011 DURAND AVE</t>
+          <t>https://goo.gl/maps/AQTpgCC5MQm</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3466,11 +3458,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/AQTpgCC5MQm</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3508,9 +3496,21 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3545,17 +3545,17 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3588,12 +3588,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3643,12 +3643,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3694,12 +3694,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3743,21 +3743,9 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -2552,7 +2552,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5:00 am meet for Sarah &amp; Lori at Hwy N PnR</t>
+          <t>5:00 am meet for Sarah, Lori &amp; Savannah at Hwy N PnR</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Sarah</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3246,9 +3246,21 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3333,11 +3345,7 @@
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3382,7 +3390,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3417,7 +3425,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3452,7 +3460,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3491,7 +3499,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3538,7 +3546,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3583,7 +3591,11 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
@@ -3625,21 +3637,9 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
@@ -3682,15 +3682,19 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
@@ -3733,12 +3737,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3772,19 +3776,15 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Until 10:30</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -3811,15 +3811,19 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Until 10:30</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3858,12 +3862,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3899,8 +3903,16 @@
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -3703,7 +3703,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -1957,7 +1957,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2208,9 +2208,21 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
@@ -2292,11 +2304,7 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2341,7 +2349,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2380,7 +2388,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2419,7 +2427,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5700 WEST CAPITOL DR</t>
+          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2462,7 +2470,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
+          <t>5700 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2501,7 +2509,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2552,7 +2560,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5:00 am meet for Sarah, Lori &amp; Savannah at Hwy N PnR</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2602,7 +2610,11 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Sarah, Lori &amp; Savannah at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -2644,21 +2656,9 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2713,17 +2713,17 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -2776,12 +2776,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2840,17 +2840,17 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>w/ Sarah</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -2891,17 +2891,17 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Sarah</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -2942,12 +2942,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3001,12 +3001,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3056,7 +3056,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3111,7 +3111,7 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3166,7 +3166,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3209,7 +3209,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3248,7 +3248,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -3390,7 +3390,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -1396,7 +1396,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1573,10 +1573,14 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Rx - 2nd Rx</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1585,7 +1589,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1643,14 +1647,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Rx - 2nd Rx</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1659,10 +1659,15 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1710,10 +1715,15 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store,
+w/ Nate Drive 1/2</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1722,15 +1732,10 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -1783,15 +1788,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ Nate Drive 1/2</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1800,10 +1800,14 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -1845,10 +1849,15 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1857,12 +1866,13 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Red Camry</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1904,13 +1914,14 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>Driver, 1/2
+Camry 3,
+Supv Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -1921,13 +1932,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -1966,40 +1977,13 @@
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -2080,11 +2064,19 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2125,7 +2117,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2133,7 +2125,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2176,7 +2168,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #874 +RX, KENOSHA - HWY 50</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2184,7 +2176,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2227,7 +2219,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PICK #874 +RX, KENOSHA - HWY 50</t>
+          <t>5710 75TH ST</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2235,7 +2227,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2262,7 +2254,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5710 75TH ST</t>
+          <t>https://goo.gl/maps/Xpi4RcchLn92</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2270,7 +2262,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2310,7 +2302,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Xpi4RcchLn92</t>
+          <t>SET UP ON REG #5 CLOSEST TOWARDS CLICKLIST</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2318,7 +2310,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2357,7 +2349,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5 CLOSEST TOWARDS CLICKLIST</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2365,7 +2357,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2396,7 +2388,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2404,7 +2396,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2433,17 +2425,13 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2475,14 +2463,26 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2516,24 +2516,25 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver 1/2,
+Rx</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>*4:45 am office leave time</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2567,27 +2568,22 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Rx</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>*4:45 am office leave time</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2619,23 +2615,35 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2662,12 +2670,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2678,17 +2686,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2729,35 +2737,24 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -2792,18 +2789,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2856,12 +2852,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2907,12 +2903,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -2958,12 +2954,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3017,12 +3013,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3072,12 +3068,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3125,21 +3121,9 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3224,7 +3208,11 @@
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3265,7 +3253,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3308,7 +3296,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #009, RACINE</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3351,7 +3339,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #009, RACINE</t>
+          <t>4011 DURAND AVE</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3398,7 +3386,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>4011 DURAND AVE</t>
+          <t>https://goo.gl/maps/AQTpgCC5MQm</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3431,11 +3419,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/AQTpgCC5MQm</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3465,9 +3449,21 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3506,17 +3502,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3553,12 +3549,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3600,12 +3596,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3643,12 +3639,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3696,21 +3692,9 @@
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Madison Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Madison Schedule.xlsx
@@ -1852,12 +1852,7 @@
           <t>Michael N</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
